--- a/documents/PPDM_Cookies Categories NameTest Cases_dataNupur.xlsx
+++ b/documents/PPDM_Cookies Categories NameTest Cases_dataNupur.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -319,9 +319,6 @@
     <t>Records of ${Vendor Name}</t>
   </si>
   <si>
-    <t>Vendor name data</t>
-  </si>
-  <si>
     <t>https://www.onetrust.com/</t>
   </si>
   <si>
@@ -329,6 +326,30 @@
   </si>
   <si>
     <t xml:space="preserve">Cookies Categories should  appear </t>
+  </si>
+  <si>
+    <t>https://www.kellton.com/</t>
+  </si>
+  <si>
+    <t>https://mirus-it.co.uk/</t>
+  </si>
+  <si>
+    <t>One Trust</t>
+  </si>
+  <si>
+    <t>Bright Bridge</t>
+  </si>
+  <si>
+    <t>Kellton Tech</t>
+  </si>
+  <si>
+    <t>Mirus IT/MiContent Cloud</t>
+  </si>
+  <si>
+    <t>Vendor name</t>
+  </si>
+  <si>
+    <t>Vendor Url</t>
   </si>
 </sst>
 </file>
@@ -366,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -402,21 +423,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -432,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -451,14 +457,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,11 +1176,11 @@
         <v>98</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="13"/>
+      <c r="B16" s="10"/>
       <c r="J16" s="9"/>
     </row>
   </sheetData>
@@ -1186,37 +1191,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>102</v>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/documents/PPDM_Cookies Categories NameTest Cases_dataNupur.xlsx
+++ b/documents/PPDM_Cookies Categories NameTest Cases_dataNupur.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Test case</t>
   </si>
   <si>
-    <t>Vendor Name to be appeared</t>
-  </si>
-  <si>
-    <t>Vendor Name should appear</t>
-  </si>
-  <si>
     <t>Red Flag Vendor Name to be appeared</t>
   </si>
   <si>
@@ -93,10 +87,6 @@
   </si>
   <si>
     <t>Verify vendor name in PPDM records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search Vendor name in PPDM records
-</t>
   </si>
   <si>
     <t>Vendor name to be in PPDM records of Vendors</t>
@@ -295,9 +285,6 @@
     <t>Cookies categories id</t>
   </si>
   <si>
-    <t>TC_ 12</t>
-  </si>
-  <si>
     <t>Cookies Categories name to be records</t>
   </si>
   <si>
@@ -350,6 +337,41 @@
   </si>
   <si>
     <t>Vendor Url</t>
+  </si>
+  <si>
+    <t>Insert $ as Vendor Name</t>
+  </si>
+  <si>
+    <t>Error to be appeared for incorect vendor name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input $ as vendor name
+</t>
+  </si>
+  <si>
+    <t>Error for inccorrect Vendor Name should appear</t>
+  </si>
+  <si>
+    <t>Insert One Trust as Vendor Name</t>
+  </si>
+  <si>
+    <t>One Trust as Vendor Name</t>
+  </si>
+  <si>
+    <t>Vendor Name details populated correctly in Vendor Record Fields
+ like Vendor Name, ID etc.</t>
+  </si>
+  <si>
+    <t>Vendor Name details populate correctly</t>
+  </si>
+  <si>
+    <t>Vendor Name details should populate correctly</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
   </si>
 </sst>
 </file>
@@ -766,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K16"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -778,11 +800,11 @@
     <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" customWidth="1"/>
-    <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
     <col min="9" max="9" width="17.5546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
     <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -821,63 +843,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="28.8">
+    <row r="4" spans="2:11" ht="43.2">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" ht="28.8">
+    <row r="5" spans="2:11" ht="43.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>112</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -886,28 +908,28 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -916,272 +938,302 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" ht="28.8">
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" ht="43.2">
-      <c r="B8" s="2" t="s">
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="28.8">
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" ht="43.2">
-      <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" ht="28.8">
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="J12" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" ht="28.8">
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" ht="28.8">
       <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" ht="28.8">
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="G15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="43.2">
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="43.2">
-      <c r="B15" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="10"/>
-      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="10"/>
+      <c r="J17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1194,7 +1246,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1205,10 +1257,10 @@
     <row r="1" spans="1:3">
       <c r="A1" s="2"/>
       <c r="B1" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1221,10 +1273,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1232,10 +1284,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1243,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1254,10 +1306,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
